--- a/Aula03/embaixadinha_2021_manual.xlsx
+++ b/Aula03/embaixadinha_2021_manual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="198">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t xml:space="preserve">Natação </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>analili</t>
@@ -618,12 +615,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="178" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -662,29 +659,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -693,7 +667,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,8 +694,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,13 +728,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,7 +742,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,21 +760,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,6 +781,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -793,21 +805,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,7 +825,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,19 +879,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,13 +915,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,37 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,31 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,13 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,19 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,8 +1037,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,30 +1054,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,9 +1075,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,175 +1131,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1308,8 +1305,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1573,10 +1570,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B60"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1597,7 +1594,7 @@
     <col min="14" max="14" width="41.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1637,6 @@
       <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -3480,7 +3476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:16">
+    <row r="47" customHeight="1" spans="1:14">
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
@@ -3520,9 +3516,6 @@
       </c>
       <c r="N47" s="1">
         <v>4</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:14">
@@ -3531,13 +3524,13 @@
         <v>12606710</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E48" s="3">
         <v>37746</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G48" s="1">
         <v>53</v>
@@ -3566,14 +3559,14 @@
     </row>
     <row r="49" customHeight="1" spans="1:14">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="1">
         <v>12606683</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E49" s="2">
         <v>36884</v>
@@ -3608,14 +3601,14 @@
     </row>
     <row r="50" customHeight="1" spans="1:14">
       <c r="A50" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="1">
         <v>12529902</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E50" s="3">
         <v>36679</v>
@@ -3639,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>24</v>
@@ -3650,14 +3643,14 @@
     </row>
     <row r="51" customHeight="1" spans="1:14">
       <c r="A51" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="1">
         <v>12529878</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51" s="3">
         <v>34476</v>
@@ -3684,7 +3677,7 @@
         <v>38</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N51" s="1">
         <v>9</v>
@@ -3697,7 +3690,7 @@
         <v>10723200</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E52" s="2">
         <v>36875</v>
@@ -3723,14 +3716,14 @@
     </row>
     <row r="53" customHeight="1" spans="1:14">
       <c r="A53" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="1">
         <v>10745793</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E53" s="3">
         <v>36587</v>
@@ -3765,14 +3758,14 @@
     </row>
     <row r="54" customHeight="1" spans="1:14">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="1">
         <v>12777382</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" s="3">
         <v>37650</v>
@@ -3781,7 +3774,7 @@
         <v>79</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H54" s="1">
         <v>37</v>
@@ -3807,14 +3800,14 @@
     </row>
     <row r="55" customHeight="1" spans="1:14">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="1">
         <v>12101096</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E55" s="3">
         <v>36743</v>
@@ -3854,7 +3847,7 @@
         <v>12692217</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E56" s="3">
         <v>37358</v>
@@ -3896,7 +3889,7 @@
         <v>12529583</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E57" s="14">
         <v>36456</v>
@@ -3923,7 +3916,7 @@
         <v>58</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N57" s="1">
         <v>4</v>
@@ -3931,14 +3924,14 @@
     </row>
     <row r="58" customHeight="1" spans="1:14">
       <c r="A58" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="1">
         <v>12682230</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E58" s="3">
         <v>37283</v>
@@ -3962,7 +3955,7 @@
         <v>3</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>24</v>
@@ -3973,20 +3966,20 @@
     </row>
     <row r="59" customHeight="1" spans="1:14">
       <c r="A59" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1">
         <v>12565368</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E59" s="3">
         <v>37630</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G59" s="1">
         <v>43</v>
@@ -4015,14 +4008,14 @@
     </row>
     <row r="60" customHeight="1" spans="1:14">
       <c r="A60" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1">
         <v>12529836</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E60" s="3">
         <v>37641</v>
